--- a/biology/Zoologie/Gnathomortis/Gnathomortis.xlsx
+++ b/biology/Zoologie/Gnathomortis/Gnathomortis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gnathomortis est un genre éteint de reptiles marins de la famille des Mosasauridae classé dans la sous-famille des Mosasaurinae, aux côtés de genres tels que Mosasaurus et Clidastes. Gnathomortis a été trouvé en Amérique du Nord dans des gisements du Campanien inférieur, entre 81 et 79 millions d'années[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gnathomortis est un genre éteint de reptiles marins de la famille des Mosasauridae classé dans la sous-famille des Mosasaurinae, aux côtés de genres tels que Mosasaurus et Clidastes. Gnathomortis a été trouvé en Amérique du Nord dans des gisements du Campanien inférieur, entre 81 et 79 millions d'années,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gnathomortis a été créé en 2020 par Joshua R. Lively (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gnathomortis a été créé en 2020 par Joshua R. Lively (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 janvier 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 janvier 2022) :
 Gnathomortis stadtmani (Kass, 1999) †</t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Joshua R. Lively, « Redescription and Phylogenetic Assessment of ‘Prognathodon’ stadtmani: Implications for Globidensini Monophyly and Character Homology in Mosasaurinae », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 40, no 3,‎ 3 mai 2020, e1784183 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1080/02724634.2020.1784183)</t>
         </is>
